--- a/CRMPROJECTAPI/ClientApp/ReactCrm/public/CRMtemplete.xlsx
+++ b/CRMPROJECTAPI/ClientApp/ReactCrm/public/CRMtemplete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\crm-afternoon-pull\luckywheelcrm\CRMPROJECTAPI\ClientApp\ReactCrm\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD611D9A-C294-474D-BCA9-CC9548AE7857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF71810D-27CE-4888-A165-FB3F251489B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{7DF4C298-4CD0-40D0-BB97-0332DB78A183}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7DF4C298-4CD0-40D0-BB97-0332DB78A183}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>State Name</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Model Name</t>
+  </si>
+  <si>
+    <t>Sr.No</t>
   </si>
 </sst>
 </file>
@@ -412,63 +415,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84C95D8-9F73-413B-8CE6-17E91698643D}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" customWidth="1"/>
-    <col min="6" max="6" width="21.90625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="15.90625" customWidth="1"/>
-    <col min="11" max="11" width="14.08984375" customWidth="1"/>
-    <col min="12" max="12" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
